--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2727298.021755987</v>
+        <v>2831477.656207058</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>381.4619543059891</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>62.45439117602642</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>44.10101416212721</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>41.44059585273762</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>136.3896895755416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>86.87333351823655</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>211.3954436932312</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>142.4984577843359</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>191.4390920434026</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>127.7355244018754</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>113.9549918517069</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7664815891586</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.019807611472697</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>105.1162657551334</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>21.8567702508366</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.6472505928856</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>114.5006452705943</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.2907328974058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>175.9612165073972</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>152.3242997534469</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.35517081455656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>101.3930697667069</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6229551553997</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9398757025646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>77.3950726440262</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4328,22 +4330,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>890.9213886294034</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>721.9852057014965</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>571.8685662891608</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>571.8685662891608</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>424.9786187912504</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>257.2757821659693</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>111.0585953838271</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.362432603173</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.362432603173</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.569853459643</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1934.208022973022</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4720,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,28 +4746,28 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1527.946633477934</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
         <v>1273.262145272047</v>
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1151.298377994912</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C8" t="n">
-        <v>782.3358610545008</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2795.806654315204</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2443.037999045089</v>
       </c>
       <c r="X8" t="n">
-        <v>1928.037550034846</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y8" t="n">
-        <v>1537.898218059034</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.2798542473295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1452.405386426986</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1452.405386426986</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1197.720898221099</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W10" t="n">
-        <v>1197.720898221099</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X10" t="n">
-        <v>1197.720898221099</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.9283190775692</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>366.9636532421608</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7675539570408</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>718.5507239167111</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>3195.647281583946</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>3026.711098656039</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>2876.594459243704</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>2728.68136566131</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.68136566131</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.48526637619</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218388</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296626</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822165</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998105</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.02030972914</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R19" t="n">
-        <v>2442.902671851501</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S19" t="n">
-        <v>2260.047837506405</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T19" t="n">
-        <v>2040.446372529346</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U19" t="n">
-        <v>1751.371145873544</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V19" t="n">
-        <v>1496.686657667657</v>
+        <v>3826.077876455734</v>
       </c>
       <c r="W19" t="n">
-        <v>1207.269487630696</v>
+        <v>3826.077876455734</v>
       </c>
       <c r="X19" t="n">
-        <v>979.2799367326791</v>
+        <v>3598.088325557716</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.4873575891489</v>
+        <v>3377.295746414186</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5759,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795859</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>593.6115863900021</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>445.698492807609</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>298.8085453096986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408905</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>2991.228530604268</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>2991.228530604268</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>813.3497091711303</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3112.537432147379</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C31" t="n">
-        <v>2943.601249219472</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D31" t="n">
-        <v>2793.484609807137</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4287.069685262014</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>4032.385197056127</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>3742.968027019167</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>3514.978476121149</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>3294.185896977619</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>1327.139029956954</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6916,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2793.484609807138</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2793.484609807138</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>2793.484609807138</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807138</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4476.693554554633</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4257.092089577574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3968.016862921772</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3713.332374715886</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3423.915204678925</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3195.925653780907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2975.133074637377</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7430,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>842.6091804069454</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.841029837709</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473703</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2877.8627132863</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2877.8627132863</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>2729.949619703907</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>2583.059672205996</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>2415.863572920876</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.2294825375372</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.3918499711692</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.81817176293617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>147.0213775686946</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>145.3900508477912</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>100.7734165143926</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>102.8768876993832</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>31.93331737597482</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.29392045468902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.870763674540058</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.8601746357973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>172.2294825375382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>185.1299285698841</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.4033308462449</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.89210447937268</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>62.89964020219766</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442556</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740968</v>
+        <v>-849673.2931740973</v>
       </c>
       <c r="C6" t="n">
-        <v>479071.4525534953</v>
+        <v>479071.4525534961</v>
       </c>
       <c r="D6" t="n">
-        <v>479071.4525534959</v>
+        <v>479071.4525534952</v>
       </c>
       <c r="E6" t="n">
-        <v>228193.9208611994</v>
+        <v>228193.9208611984</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685541</v>
+        <v>553606.3826685542</v>
       </c>
       <c r="G6" t="n">
         <v>553606.3826685548</v>
@@ -26540,28 +26542,28 @@
         <v>553606.3826685543</v>
       </c>
       <c r="I6" t="n">
+        <v>553606.3826685542</v>
+      </c>
+      <c r="J6" t="n">
+        <v>336075.1802712768</v>
+      </c>
+      <c r="K6" t="n">
+        <v>553606.3826685543</v>
+      </c>
+      <c r="L6" t="n">
         <v>553606.3826685544</v>
-      </c>
-      <c r="J6" t="n">
-        <v>336075.1802712767</v>
-      </c>
-      <c r="K6" t="n">
-        <v>553606.3826685546</v>
-      </c>
-      <c r="L6" t="n">
-        <v>553606.3826685547</v>
       </c>
       <c r="M6" t="n">
         <v>468551.3547330424</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.3826685544</v>
+        <v>553606.382668554</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.382668555</v>
+        <v>553606.3826685543</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685543</v>
+        <v>553606.3826685542</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26792,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.271887357491437</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.25140624771088</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>313.2424457679454</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>249.848249080512</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>199.3385046873763</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>116.3568147769037</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>227.2326428941331</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>28.10985723276659</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>90.84912895021937</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.069104733398216e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28755,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.969358092741459e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -30526,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="42">
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868568</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>424.0909547148531</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>465.2170623840755</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>360.3952288121454</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>476.0648089385467</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238272</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.6314956130953</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>538.1718564803244</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>545.3845241768652</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>558.3177848342784</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>538.1718564803244</v>
+        <v>601.0567753070494</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>693.4464364470641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648384</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>281.4947102704086</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>176.2645232599139</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396311</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5537898377865</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>337.5104291586725</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899104</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378057</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.64972152707382</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>406.8301443969911</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>406.830144396991</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9760727509451</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>406.8301443969911</v>
+        <v>469.7150632237161</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>562.1047243637308</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2831477.656207058</v>
+        <v>2827465.046193066</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.4619543059891</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>61.96348919956034</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103611</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.44059585273762</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>122.2882635917093</v>
       </c>
       <c r="V8" t="n">
-        <v>211.3954436932312</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>127.7355244018754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>113.9549918517069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>27.02919805176204</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
-        <v>105.1162657551334</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>47.84205650381972</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>114.5006452705943</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.9612165073972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2766.859418723279</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.393660462199</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.254328486388</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
         <v>922.6774975139006</v>
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1774.874707816161</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1553.108092385688</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1553.108092385688</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1553.108092385688</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1553.108092385688</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258596</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4640,10 +4640,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088492</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.833068744076</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3091.791654558782</v>
       </c>
       <c r="V8" t="n">
-        <v>2795.806654315204</v>
+        <v>2760.728767215212</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.037999045089</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.572240784009</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.432908808198</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>935.322011573528</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>935.322011573528</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>806.2962293494114</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972545</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3195.647281583946</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>3026.711098656039</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>2876.594459243704</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>2728.68136566131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.68136566131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.48526637619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218388</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.25592267304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>3826.077876455734</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>3826.077876455734</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>3598.088325557716</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>3377.295746414186</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3160.164713532175</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2991.228530604268</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2991.228530604268</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.164713532175</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069454</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311364</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613761</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.2294825375372</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>118.3918499711692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
-        <v>147.0213775686946</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>100.7734165143926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>31.93331737597482</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.870763674540058</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179346</v>
-      </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26456,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740973</v>
+        <v>-849673.2931740964</v>
       </c>
       <c r="C6" t="n">
-        <v>479071.4525534961</v>
+        <v>479071.4525534956</v>
       </c>
       <c r="D6" t="n">
-        <v>479071.4525534952</v>
+        <v>479071.4525534954</v>
       </c>
       <c r="E6" t="n">
-        <v>228193.9208611984</v>
+        <v>227846.5416068427</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685542</v>
+        <v>553259.0034141974</v>
       </c>
       <c r="G6" t="n">
-        <v>553606.3826685548</v>
+        <v>553259.0034141974</v>
       </c>
       <c r="H6" t="n">
-        <v>553606.3826685543</v>
+        <v>553259.0034141975</v>
       </c>
       <c r="I6" t="n">
-        <v>553606.3826685542</v>
+        <v>553259.0034141974</v>
       </c>
       <c r="J6" t="n">
-        <v>336075.1802712768</v>
+        <v>335727.8010169197</v>
       </c>
       <c r="K6" t="n">
-        <v>553606.3826685543</v>
+        <v>553259.0034141971</v>
       </c>
       <c r="L6" t="n">
-        <v>553606.3826685544</v>
+        <v>553259.0034141971</v>
       </c>
       <c r="M6" t="n">
-        <v>468551.3547330424</v>
+        <v>468203.9754786852</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.382668554</v>
+        <v>553259.003414197</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.3826685543</v>
+        <v>553259.0034141971</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685542</v>
+        <v>553259.0034141974</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26965,20 +26965,20 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.271887357491437</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>127.8055361318816</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>307.2767095024445</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>313.2424457679454</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062524</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>128.7069083671927</v>
       </c>
       <c r="V8" t="n">
-        <v>116.3568147769037</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.84912895021937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.069104733398216e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.969358092741459e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868568</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>163.1438255932947</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>465.2170623840755</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>476.0648089385467</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33912,13 +33912,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>601.0567753070494</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34447,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648384</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>20.54758114885028</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>322.6208179396311</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5104291586725</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899104</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>469.7150632237161</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2827465.046193066</v>
+        <v>2829225.576495851</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>229.7965692041362</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>200.8055935429093</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>61.96348919956034</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899708</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103611</v>
+        <v>75.45713216103971</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>71.67037196991681</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>37.59617708813305</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>122.2882635917093</v>
+        <v>105.6307852904561</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991708</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>69.82863813027285</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038042</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.66971909763</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.40402049088</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>709.6157678926356</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>298.6298631030281</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4336,46 +4336,46 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339055</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102164</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
         <v>922.6774975139006</v>
@@ -4485,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1774.874707816161</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1553.108092385688</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="U4" t="n">
-        <v>1553.108092385688</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="V4" t="n">
-        <v>1553.108092385688</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="W4" t="n">
-        <v>1553.108092385688</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.11854148767</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4558,61 +4558,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.37029594375</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,64 +4701,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>680.3679798527296</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
         <v>1600.215744761477</v>
@@ -4770,7 +4770,7 @@
         <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>862.0164446829693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
         <v>530.5269660969217</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3091.791654558782</v>
+        <v>3108.617390216615</v>
       </c>
       <c r="V8" t="n">
-        <v>2760.728767215212</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.960111945097</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X8" t="n">
-        <v>2034.494353684017</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>197.0043242297712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,16 +5296,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,58 +5652,58 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
         <v>1828.279732885522</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,28 +7332,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2437.724555511392</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7496,7 +7496,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
         <v>1186.520756890282</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-3.997661214947804e-14</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>111.1976478713717</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>147.0213775686976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>769832.6845296717</v>
+        <v>769832.6845296716</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>769832.6845296717</v>
+        <v>769832.6845296716</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184653</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314463</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314466</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179357</v>
-      </c>
       <c r="H4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26459,7 +26459,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740964</v>
+        <v>-849673.2931740973</v>
       </c>
       <c r="C6" t="n">
-        <v>479071.4525534956</v>
+        <v>479071.4525534957</v>
       </c>
       <c r="D6" t="n">
-        <v>479071.4525534954</v>
+        <v>479071.452553496</v>
       </c>
       <c r="E6" t="n">
-        <v>227846.5416068427</v>
+        <v>228159.1829357633</v>
       </c>
       <c r="F6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="G6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="H6" t="n">
-        <v>553259.0034141975</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="I6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431184</v>
       </c>
       <c r="J6" t="n">
-        <v>335727.8010169197</v>
+        <v>336040.4423458414</v>
       </c>
       <c r="K6" t="n">
-        <v>553259.0034141971</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="L6" t="n">
-        <v>553259.0034141971</v>
+        <v>553571.6447431186</v>
       </c>
       <c r="M6" t="n">
-        <v>468203.9754786852</v>
+        <v>468516.6168076065</v>
       </c>
       <c r="N6" t="n">
-        <v>553259.003414197</v>
+        <v>553571.6447431186</v>
       </c>
       <c r="O6" t="n">
-        <v>553259.0034141971</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="P6" t="n">
-        <v>553259.0034141974</v>
+        <v>553571.6447431187</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>126.9466649272256</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>127.8055361318816</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.2833318990663</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024445</v>
+        <v>307.2767095024409</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>147.8785773062524</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>214.5414662356949</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>128.7069083671927</v>
+        <v>145.3643866684459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.682048439921</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>118.0986533615246</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1438255932947</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>322.8964653704906</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54758114885028</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>188.9220579561604</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
